--- a/src/assets/bd/mercaderiaData.xlsx
+++ b/src/assets/bd/mercaderiaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Proyectos-Recap\plantillas\plantilla2\smgFront\src\assets\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6215FEFD-3CEC-4070-B8AB-EC679FEF283B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C750BD56-5847-4982-8DA5-E8CB3321D672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{A005A446-4FBB-42A9-BE7A-84389F7F20C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>nombre</t>
   </si>
@@ -54,97 +54,118 @@
     <t>detallesCompleto</t>
   </si>
   <si>
-    <t>Leggings de Alta Compresión</t>
-  </si>
-  <si>
-    <t>https://www.hola.com/horizon/original_aspect_ratio/95dbec95712e-crz-yoga-leggins-z.jpg</t>
-  </si>
-  <si>
-    <t>Leggings de alta compresión, perfectos para entrenamientos intensos.</t>
-  </si>
-  <si>
-    <t>Top Deportivo Sin Costuras</t>
-  </si>
-  <si>
-    <t>https://i.ebayimg.com/images/g/FAEAAOSwqeRiHsZj/s-l500.jpg</t>
-  </si>
-  <si>
-    <t>Top deportivo sin costuras para máxima comodidad y soporte.</t>
-  </si>
-  <si>
-    <t>Sudadera con Capucha Ligera</t>
-  </si>
-  <si>
-    <t>https://i5.walmartimages.com.mx/mg/gm/3pp/asr/434eb186-2b3c-425a-a70a-52832aa523c2.bfcb32ad87628704a1c2aa6128b4bf35.jpeg?odnHeight=612&amp;odnWidth=612&amp;odnBg=FFFFFF</t>
-  </si>
-  <si>
-    <t>Sudadera ligera con capucha, ideal para correr en climas frescos.</t>
-  </si>
-  <si>
-    <t>Shorts Deportivo Cintura Alta</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/618mQ1s718L._AC_UY580_.jpg</t>
-  </si>
-  <si>
-    <t>Shorts deportivos de cintura alta, cómodos y elásticos.</t>
-  </si>
-  <si>
-    <t>Chaqueta Impermeable</t>
-  </si>
-  <si>
-    <t>https://ec.patagonia.com/cdn/shop/products/85245_DBGR_large.jpg?v=1709651795</t>
-  </si>
-  <si>
-    <t>Chaqueta impermeable para correr bajo la lluvia, con diseño transpirable.</t>
-  </si>
-  <si>
-    <t>Sujetador Deportivo Ajustable</t>
-  </si>
-  <si>
-    <t>https://i5.walmartimages.com/asr/ac35a116-7b92-420c-8c0a-4d0eb606deb6_1.2e062fa7f835ef1b9ba3b9e497bff489.jpeg</t>
-  </si>
-  <si>
-    <t>Sujetador deportivo con tirantes ajustables, soporte medio-alto.</t>
-  </si>
-  <si>
-    <t>Conjunto de Yoga 2 Piezas</t>
-  </si>
-  <si>
-    <t>https://image.made-in-china.com/202f0j00lQfcbJkWCMoz/Non-Slip-Stitch-Waist-Butt-Lift-Leggings-V-Back-Design-Sports-Bra-Yoga-Suit-2-Piece-Gym-Fitness-Set.webp</t>
-  </si>
-  <si>
-    <t>Conjunto de yoga de 2 piezas: top y leggings de tela suave y elástica.</t>
-  </si>
-  <si>
-    <t>Pantalones de Entrenamiento</t>
-  </si>
-  <si>
-    <t>https://static.nike.com/a/images/c_limit,w_592,f_auto/t_product_v1/049b12d9-af56-42d7-b7f9-d043111d678d/bliss-luxe-pantalon-de-entrenamiento-lc04VS.png</t>
-  </si>
-  <si>
-    <t>Pantalones largos para entrenamiento, con bolsillos y ajuste en los tobillos.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>35.00</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>assets/img/productos/camisaOverside2.jpeg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>assets/img/productos/camisaOverside4.jpeg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>assets/img/productos/camisaOverside3.jpeg</t>
+    </r>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>Camiseta Oversize</t>
+  </si>
+  <si>
+    <t>Comodidad total en una sola prenda, ¡ideal para tu día a día!</t>
+  </si>
+  <si>
+    <t>Estampados únicos para destacar con estilo.</t>
+  </si>
+  <si>
+    <t>Camiseta Oversize Con Estampado</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>Camiseta Oversize ¡Oferta!</t>
+  </si>
+  <si>
+    <t>Llévate dos camisas y ahorra al estilo oversize.</t>
+  </si>
+  <si>
+    <t>Estampados</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>Estampados únicos que resaltan tu estilo junto a ti.</t>
+  </si>
+  <si>
+    <t>Nuestras camisetas oversize combinan comodidad y estilo, perfectas para cualquier ocasión diaria.</t>
+  </si>
+  <si>
+    <t>Camisas oversize con estampados exclusivos que te permiten destacar y expresarte a tu manera.</t>
+  </si>
+  <si>
+    <t>Aprovecha la oferta 2x15$ y elige dos camisetas oversize para renovar tu look con estilo.</t>
+  </si>
+  <si>
+    <t>Diseños de estampados únicos en camisetas oversize para quienes desean llevar su estilo a otro nivel.</t>
+  </si>
+  <si>
+    <t>https://atuestilob.com/cdn/shop/products/amarillo_480x480@2x.png?v=1659036297</t>
   </si>
 </sst>
 </file>
@@ -154,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +199,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -217,7 +251,17 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -536,14 +580,17 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="90" customWidth="1"/>
+    <col min="1" max="1" width="7" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -559,161 +606,126 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{9AE68FF3-DB0E-4743-BAC3-0A75B3DB1CDE}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{26BCB559-D0BB-4DEA-BC3A-926EC39C5BA4}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{D5FE9080-8E60-46EE-9E16-A26CF6265EFA}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{BBB3B64C-E8CE-4C79-A575-E8FC27F9EAA8}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{BFD5BFB9-7497-4ACC-AC07-A3ECF146B474}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{386FAA77-D584-4797-94B5-2541E426741A}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{75F26161-77BF-4430-8968-2DE991B3D8DB}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{C918DD46-1E02-4E91-8AC0-74CDD1356BCC}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{284A4809-8DAD-44FC-9856-002732FCA90F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/assets/bd/mercaderiaData.xlsx
+++ b/src/assets/bd/mercaderiaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Proyectos-Recap\plantillas\plantilla2\smgFront\src\assets\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C750BD56-5847-4982-8DA5-E8CB3321D672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C03BA27-4551-4068-81D2-B453B048EC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{A005A446-4FBB-42A9-BE7A-84389F7F20C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>nombre</t>
   </si>
@@ -52,6 +52,39 @@
   </si>
   <si>
     <t>detallesCompleto</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>Camiseta Oversize</t>
+  </si>
+  <si>
+    <t>Comodidad total en una sola prenda, ¡ideal para tu día a día!</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>Camiseta Oversize ¡Oferta!</t>
+  </si>
+  <si>
+    <t>Llévate dos camisas y ahorra al estilo oversize.</t>
+  </si>
+  <si>
+    <t>Estampados</t>
+  </si>
+  <si>
+    <t>Estampados únicos que resaltan tu estilo junto a ti.</t>
+  </si>
+  <si>
+    <t>Nuestras camisetas oversize combinan comodidad y estilo, perfectas para cualquier ocasión diaria.</t>
+  </si>
+  <si>
+    <t>Aprovecha la oferta 2x15$ y elige dos camisetas oversize para renovar tu look con estilo.</t>
+  </si>
+  <si>
+    <t>Diseños de estampados únicos en camisetas oversize para quienes desean llevar su estilo a otro nivel.</t>
   </si>
   <si>
     <r>
@@ -71,7 +104,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>assets/img/productos/camisaOverside2.jpeg</t>
+      <t>assets/img/productos/camisaOverside2.webp</t>
     </r>
   </si>
   <si>
@@ -92,8 +125,23 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>assets/img/productos/camisaOverside4.jpeg</t>
+      <t>assets/img/productos/camisaOverside3.webp</t>
     </r>
+  </si>
+  <si>
+    <t>/assets/img/productos/estampado2.webp</t>
+  </si>
+  <si>
+    <t>/assets/img/productos/estampado3.webp</t>
+  </si>
+  <si>
+    <t>/assets/img/productos/estampado4.webp</t>
+  </si>
+  <si>
+    <t>/assets/img/productos/estampado5.webp</t>
+  </si>
+  <si>
+    <t>/assets/img/productos/estampado6.webp</t>
   </si>
   <si>
     <r>
@@ -113,59 +161,17 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>assets/img/productos/camisaOverside3.jpeg</t>
+      <t>assets/img/productos/camisaOverside4.webp</t>
     </r>
   </si>
   <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>Camiseta Oversize</t>
-  </si>
-  <si>
-    <t>Comodidad total en una sola prenda, ¡ideal para tu día a día!</t>
-  </si>
-  <si>
-    <t>Estampados únicos para destacar con estilo.</t>
-  </si>
-  <si>
     <t>Camiseta Oversize Con Estampado</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>Camiseta Oversize ¡Oferta!</t>
-  </si>
-  <si>
-    <t>Llévate dos camisas y ahorra al estilo oversize.</t>
-  </si>
-  <si>
-    <t>Estampados</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>Estampados únicos que resaltan tu estilo junto a ti.</t>
-  </si>
-  <si>
-    <t>Nuestras camisetas oversize combinan comodidad y estilo, perfectas para cualquier ocasión diaria.</t>
-  </si>
-  <si>
-    <t>Camisas oversize con estampados exclusivos que te permiten destacar y expresarte a tu manera.</t>
-  </si>
-  <si>
-    <t>Aprovecha la oferta 2x15$ y elige dos camisetas oversize para renovar tu look con estilo.</t>
-  </si>
-  <si>
-    <t>Diseños de estampados únicos en camisetas oversize para quienes desean llevar su estilo a otro nivel.</t>
-  </si>
-  <si>
-    <t>https://atuestilob.com/cdn/shop/products/amarillo_480x480@2x.png?v=1659036297</t>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
   </si>
 </sst>
 </file>
@@ -234,15 +240,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -257,7 +260,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -580,21 +582,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="8" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -603,13 +604,13 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -618,19 +619,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -638,19 +639,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -658,19 +659,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,54 +679,103 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{284A4809-8DAD-44FC-9856-002732FCA90F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>